--- a/ejemplos/modelos_arbol_individual-masas_puras/Phalepensis_Cataluna_Aragon_IFN_1_parcela.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Phalepensis_Cataluna_Aragon_IFN_1_parcela.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,39 +452,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="F2">
         <v>47</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>343.0673217758633</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>17.33945833333333</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>18.84397507499823</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.806290049149754</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.17222888962655</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>24.59159717334714</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>25.15470590186405</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>24.38543493807929</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>23.7601499912284</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>22.36850207156411</v>
       </c>
     </row>
